--- a/medicine/Mort/Cimetière_de_Mountain_View_(Oakland,_Californie)/Cimetière_de_Mountain_View_(Oakland,_Californie).xlsx
+++ b/medicine/Mort/Cimetière_de_Mountain_View_(Oakland,_Californie)/Cimetière_de_Mountain_View_(Oakland,_Californie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Mountain_View_(Oakland,_Californie)</t>
+          <t>Cimetière_de_Mountain_View_(Oakland,_Californie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cimetière de Mountain View est un cimetière de 226 acres (91,5 ha) situé à Oakland, dans le comté d'Alameda, en Californie. Il a été créé en 1863 par un groupe de pionniers de l'East Bay en vertu de la loi sur les cimetières ruraux de Californie de 1859. L'association, qu'ils ont formée, le fait encore fonctionner aujourd'hui. Mountain View a été conçu par Frederick Law Olmsted, l'architecte paysagiste qui a également conçu Central Park à New York et une part importante des universités d'UC Berkeley et de Stanford.
 Beaucoup de personnalités d'importance historique de la Californie, attirées par la réputation d'Olmsted, y sont enterrées, et il y a beaucoup de cryptes grandioses en hommage aux riches dans une section connue comme l'« allée des millionnaires ». De ce fait, et de son cadre magnifique, le cimetière est une attraction touristique et des guides effectuent des visites semi-mensuelles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Mountain_View_(Oakland,_Californie)</t>
+          <t>Cimetière_de_Mountain_View_(Oakland,_Californie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Conception</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'intention d'Olmsted était de créer un espace qui exprime une harmonie entre l'homme et le milieu naturel. Dans l'esprit des romantiques anglais et américain du XIXe siècle, les cimetières semblables à un parc, comme Mountain View, représentaient la paix de la nature, à laquelle l'âme humaine retourne. Olmsted, en s'appuyant sur les concepts du transcendantalisme américain, a intégré des grands monuments parisiens et de larges avenues.
 Le cimetière de Sainte-Marie et le mausolée et le columbarium de la chapelle du Carillon mausolée et du columbarium sont attenants au cimetière de Mountain View.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Mountain_View_(Oakland,_Californie)</t>
+          <t>Cimetière_de_Mountain_View_(Oakland,_Californie)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,48 @@
           <t>Sépultures notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il y a plusieurs personnalités notables enterrées à Moutain View, nombreux sont des acteurs locaux dans l'histoire de la Californie, mais les autres ont obtenu une renommée plus large[1].
-Personnalités politiques et fonctionnaires du gouvernement
-Washington Bartlett, maire de San Francisco (1882-1884), gouverneur de la Californie (1887) ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a plusieurs personnalités notables enterrées à Moutain View, nombreux sont des acteurs locaux dans l'histoire de la Californie, mais les autres ont obtenu une renommée plus large.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnalités politiques et fonctionnaires du gouvernement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Washington Bartlett, maire de San Francisco (1882-1884), gouverneur de la Californie (1887) ;
 Coles Bashford, gouverneur du Wisconsin et homme politique du territoire de l'Arizona ;
 Leonard W. Buck (1834-1895), propriétaire de ranch, en Californie, sénateur de l'État ;
 Warren B. English, délégué des États-Unis (D) de la Californie ;
@@ -560,9 +611,43 @@
 Samuel Merritt, un des premiers maires d'Oakland
 Romualdo Pacheco, gouverneur de la Californie 1875
 George Pardee, gouverneur de la Californie 1903-1907
-George C. Perkins, gouverneur de la Californie, 1880-1883 ; sénateur des États-Unis, 1893-1915.
-Industriels et hommes d'affaires
-Warren A. Bechtel, industriel, fondateur de la société Bechtel ;
+George C. Perkins, gouverneur de la Californie, 1880-1883 ; sénateur des États-Unis, 1893-1915.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Industriels et hommes d'affaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Warren A. Bechtel, industriel, fondateur de la société Bechtel ;
 Anthony Chabot, père de l'exploitation hydraulique et bienfaiteur du Chabot Espace &amp; Science Center ;
 Charles Crocker, magnat ferroviaire, banquier ;
 William E. Dargie, propriétaire - Oakland Tribune
@@ -579,9 +664,43 @@
 Joe Shoong, immigrant Chinois et fondateur de la chaîne  National Dollar Stores
 Francis Marion Smith, le « roi Borax » ;
 Charles Mineur Goodall, cofondateur de la Pacific Coast Steamship Company
-Lewis Bradbury, millionnaire des mines d'or qui possédait la Tajo Mine au Mexique, et plus tard est devenu un promoteur immobilier ;
-Militaire
-Brigadier-Général Henry Brevard Davidson de l'armée des États confédérés ;
+Lewis Bradbury, millionnaire des mines d'or qui possédait la Tajo Mine au Mexique, et plus tard est devenu un promoteur immobilier ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Militaire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brigadier-Général Henry Brevard Davidson de l'armée des États confédérés ;
 John Coffe Hays, Texas Ranger et premier shérif de San Francisco ;
 Eli L. Huggins, soldat des guerres indiennes et récipiendaire de la médaille d'honneur ;
 Henry T. Johns, soldat de la guerre de Sécession et récipiendaire de la médaille d'honneur ;
@@ -589,9 +708,43 @@
 Oscar Fitzalan Long, soldat des guerres indiennes et récipiendaire de la médaille d'honneur ;
 Rossell O'Brien, vétérans de la guerre de Sécession qui a commencé l'habitude de rester debout et de retirer son chapeau lors de l'hymne national américain ;
 Jeremiah C. Sullivan, général de l'armée de l'Union et membre dé l'état-major d'Ulysses S. Grant
-Adam Weissel, marin de la marine des États-Unis et récipiendaire de la médaille d'honneur ;
-Arts et culture
-Leandro Campanari, violoniste Italo-Américain, chef d'orchestre, compositeur et professeur de musique ;
+Adam Weissel, marin de la marine des États-Unis et récipiendaire de la médaille d'honneur ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arts et culture</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Leandro Campanari, violoniste Italo-Américain, chef d'orchestre, compositeur et professeur de musique ;
 Malonga Casquelord, danseur Congolais, batteur, chorégraphe et fondateur de Fua Dia Congo ;
 Herbert A. Collins, artiste de paysage et de portrait ;
 Ina Coolbrith, premier poète lauréat en Californie ;
@@ -605,9 +758,43 @@
 Frank Norris, auteur ;
 Floyd Salas, auteur ;
 Isabel Seal Stovel, un des organisateurs de la semaine de la musique de la ville de San Francisco ;
-Douglas Tilden, sculpteur ;
-Histoire locale
-Edson Adams, a aménagé la ville de Oakland ;
+Douglas Tilden, sculpteur ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Histoire locale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Edson Adams, a aménagé la ville de Oakland ;
 Rév. Benjamin Akerly, pionnier épiscopalien, clerc de la région de la Baie, a effectué la consécration du cimetière de Mountain View et a officié des centaines d'inhumations ;
 Moïse Chase, que l'on croit être le premier Américain à s'installer dans la région de l'East Bay ;
 David D. Colton, vice-président de la Southern Pacific Railroad, homonyme de la ville de Colton, en Californie ;
@@ -615,13 +802,47 @@
 Rév. Henry Durant, premier président de l'université de Californie, Berkeley ;
 Joseph Stickney Emery, fondateur d'Emeryville, en Californie ;
 Anna Head, fondatrice de la Head-Royce Shool ;
-Nannie S. Brown Kramer, organisatrice, présidente et membre directeur d du club de la ville des femmes d'Oakland; ce club avait trois mille membres et a construit un nouveau bâtiment qui a coûté 600 000 $.00[2]
+Nannie S. Brown Kramer, organisatrice, présidente et membre directeur d du club de la ville des femmes d'Oakland; ce club avait trois mille membres et a construit un nouveau bâtiment qui a coûté 600 000 $.00
 Jane K. Sather, donatrice de Sather Gate et Sather Tower à l'université de Californie, Berkeley
 Francis K. Shattuck, célebre dans la politique et au début du développement du comté d'Alameda, à Oakland et Berkeley.
 John Swett, fondateur du système scolaire public de la Californie ;
-Charles Lee Tilden, homonyme de parc régional Tilden ;
-Autres
-Volney V. Ashford, révolutionnaire exilé
+Charles Lee Tilden, homonyme de parc régional Tilden ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Mountain_View_(Oakland,_Californie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sépultures notables</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Volney V. Ashford, révolutionnaire exilé
 Cloe Annette Buckel, une des premières femmes médecins en Californie ;
 Glenn Burke, le premier joueur ouvertement gay dans la ligue majeure de Baseball ;
 Henry D. Cogswell, dentiste et croisé du mouvement de la tempérance ;
@@ -636,7 +857,7 @@
 William T. Shorey, le seul capitaine Afro-Américain de baleinier sur la côte du Pacifique ;
 Elizabeth Short, victime du meurtre non résolu à Hollywood, connu comme le Dahlia Noir ;
 Josias Stanford, frère aîné de Leland Stanford ;
-Il y en une tombe de guerre du Commonwealth britannique, l'officier pilote James Raymond Lippi, un Américain né, membre de la Royal Canadian Air Force, qui est mort en 1942[3]. Lippi est né à Santa Cruz, en Californie, et est allé au Canada pour s'enrôler lors de la seconde guerre mondiale ;
+Il y en une tombe de guerre du Commonwealth britannique, l'officier pilote James Raymond Lippi, un Américain né, membre de la Royal Canadian Air Force, qui est mort en 1942. Lippi est né à Santa Cruz, en Californie, et est allé au Canada pour s'enrôler lors de la seconde guerre mondiale ;
 Lee Ya-Ching, la première dame de vol chinoise, première femme pilote ;diplômée de Genève-Cointrin (Suisse) et de la Boeing School od Aeronautics</t>
         </is>
       </c>
